--- a/tut05/output/0501EE28.xlsx
+++ b/tut05/output/0501EE28.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.673469387755102</v>
+        <v>6.67</v>
       </c>
       <c r="C6" t="n">
-        <v>7.318181818181818</v>
+        <v>7.32</v>
       </c>
       <c r="D6" t="n">
-        <v>7.239130434782608</v>
+        <v>7.24</v>
       </c>
       <c r="E6" t="n">
-        <v>7.304347826086956</v>
+        <v>7.3</v>
       </c>
       <c r="F6" t="n">
-        <v>8.153846153846153</v>
+        <v>8.15</v>
       </c>
       <c r="G6" t="n">
         <v>7.8</v>
       </c>
       <c r="H6" t="n">
-        <v>9.116279069767442</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>8.684210526315789</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.673469387755102</v>
+        <v>6.67</v>
       </c>
       <c r="C8" t="n">
-        <v>6.978494623655914</v>
+        <v>6.98</v>
       </c>
       <c r="D8" t="n">
-        <v>7.064748201438849</v>
+        <v>7.06</v>
       </c>
       <c r="E8" t="n">
-        <v>7.124324324324324</v>
+        <v>7.12</v>
       </c>
       <c r="F8" t="n">
-        <v>7.303571428571429</v>
+        <v>7.3</v>
       </c>
       <c r="G8" t="n">
-        <v>7.378787878787879</v>
+        <v>7.38</v>
       </c>
       <c r="H8" t="n">
-        <v>7.62214983713355</v>
+        <v>7.62</v>
       </c>
       <c r="I8" t="n">
-        <v>7.739130434782608</v>
+        <v>7.74</v>
       </c>
     </row>
   </sheetData>
